--- a/biology/Botanique/Fucus/Fucus.xlsx
+++ b/biology/Botanique/Fucus/Fucus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fucus, Fucus, est un genre d'algues brunes de la famille des Fucaceae, comportant de nombreuses espèces. Sur des côtes rocheuses subissant des marées d'amplitude importante (comme en Bretagne), un étagement de Fucus peut être observé : Fucus spiralis, Fucus vesiculosus puis Fucus serratus du haut vers le bas de la zone de balancement des marées. La couverture végétale en Fucus peut être très importante sur certaines côtes et dépasser 80 %[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fucus, Fucus, est un genre d'algues brunes de la famille des Fucaceae, comportant de nombreuses espèces. Sur des côtes rocheuses subissant des marées d'amplitude importante (comme en Bretagne), un étagement de Fucus peut être observé : Fucus spiralis, Fucus vesiculosus puis Fucus serratus du haut vers le bas de la zone de balancement des marées. La couverture végétale en Fucus peut être très importante sur certaines côtes et dépasser 80 %.
 Certaines variétés de Fucus se rencontrent parfois dans des préparations pharmaceutiques. Entre autres, les dragées laxatives Fuca dans leur formulation en France (mais pas dans la formulation en Belgique) en contiennent.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 août 2017) :
 Fucus abnormis Stackhouse (Sans vérification)
 Fucus acicularis Esper
 Fucus aculeatus Esper
@@ -661,7 +675,7 @@
 Fucus virsoides J.Agardh
 Fucus vulpinus Esper (Statut incertain)
 Fucus zeylanicus Retzius
-Selon ITIS      (25 août 2017)[3] :
+Selon ITIS      (25 août 2017) :
 Fucus ceranoides
 Fucus distichus Linnaeus, 1767
 Fucus evanescens
